--- a/assets/prizes.xlsx
+++ b/assets/prizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\T959-Folder\Documents\GitHub\MumuPokemon\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E74A9D6-D863-4152-A506-20F73D24A595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76755350-A4D2-4315-A2AC-2634F10ABF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9941A26F-0459-4E12-92B7-B15ACEB10B4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
   <si>
     <t>group_name</t>
   </si>
@@ -51,32 +51,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>✨鬼斯</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蒼炎刃鬼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>event_group</t>
   </si>
   <si>
@@ -95,217 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>斯魔茶(真品)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>夢妖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>太陽珊瑚</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>怨影娃娃</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>夜巡靈</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>來悲茶(真品)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靈幽馬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>墓仔狗</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>飄飄球</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>花岩怪</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自選閃蛋 1 顆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,106 +80,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瑪夏多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多龍巴魯托</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>雪妖女</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自選色違 3 隻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>阿爾宙斯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>死神棺</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自選閃蛋 2 顆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,47 +126,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>棄世猴</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>賽富豪</t>
+    <t>Group4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自選色違 1 隻(頭目)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自選色違 2 隻(一般)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自選色違 2 隻(頭目)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自選色違 3 隻(一般)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>噴火龍</t>
     </r>
     <r>
       <rPr>
@@ -508,12 +171,906 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group4</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>頭目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小箭雀</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小獅獅</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>戴魯比</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>呆火駝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爆香猴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夜盜火蜥</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炭小侍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卡蒂狗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>關東</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>六尾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>關東</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>古玉魚(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>貴重球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鐵毒蛾</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火神蛾</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破空焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>席多藍恩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>貴重球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>煤炭龜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>燒火蚣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>鳳王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>貴重球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>卡蒂狗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>關東</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>六尾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>關東</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>炎帝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>火焰鳥</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>噴火龍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="1"/>
+      </rPr>
+      <t>超極巨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>席多藍恩(貴重球)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鴨嘴寶寶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小火馬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炎帝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火焰鳥</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鳳王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>貴重球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小火焰猴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火球鼠</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +1078,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -536,12 +1093,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -592,6 +1143,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -639,14 +1202,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -658,25 +1221,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1005,11 +1574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4683CC-0685-4E42-A468-25AD09778568}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
@@ -1017,9 +1586,9 @@
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="33">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1028,662 +1597,662 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D2" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="17.25">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
+      <c r="C7" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="17.25">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="17.25">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="17.25">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17.25">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17.25">
       <c r="A13" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="17.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D16" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="17.25">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>18</v>
+      <c r="C18" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D18" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.25">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
+      <c r="C19" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="D19" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="17.25">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>26</v>
+      <c r="C20" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D20" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="17.25">
       <c r="A22" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>5</v>
+      <c r="C22" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D22" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="17.25">
       <c r="A23" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D23" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.25">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.25">
       <c r="A25" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D25" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="17.25">
       <c r="A26" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="17.25">
       <c r="A28" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D28" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D29" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="17.25">
       <c r="A30" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D30" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="17.25">
       <c r="A31" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D31" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D32" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="17.25">
       <c r="A33" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D33" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="17.25">
       <c r="A34" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D34" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="17.25">
       <c r="A35" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D35" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="17.25">
       <c r="A36" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D36" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D37" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>29</v>
+      <c r="C38" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D38" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D39" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="17.25">
       <c r="A40" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>27</v>
+      <c r="C40" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="D40" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>21</v>
+      <c r="C41" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="D41" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D42" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="17.25">
       <c r="A43" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D43" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="17.25">
       <c r="A44" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D44" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="17.25">
       <c r="A45" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D45" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="17.25">
       <c r="A46" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D46" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="17.25">
       <c r="A47" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D47" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D48" s="11">
         <v>60</v>

--- a/assets/prizes.xlsx
+++ b/assets/prizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\T959-Folder\Documents\GitHub\MumuPokemon\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76755350-A4D2-4315-A2AC-2634F10ABF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC20CFE0-56F8-4472-A412-A3AC2BEED74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9941A26F-0459-4E12-92B7-B15ACEB10B4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
   <si>
     <t>group_name</t>
   </si>
@@ -1072,6 +1072,9 @@
       <t>火球鼠</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✨戴魯比</t>
   </si>
 </sst>
 </file>
@@ -1572,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4683CC-0685-4E42-A468-25AD09778568}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1586,7 +1589,7 @@
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
@@ -2084,13 +2087,13 @@
         <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D36" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" ht="17.25">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
@@ -2098,24 +2101,24 @@
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="11">
-        <v>15</v>
+      <c r="D38" s="4">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2126,35 +2129,35 @@
         <v>2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="D40" s="11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17.25">
       <c r="A41" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>18</v>
+      <c r="C41" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="D41" s="11">
         <v>25</v>
@@ -2168,24 +2171,24 @@
         <v>3</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="D43" s="11">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25">
@@ -2196,7 +2199,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="11">
         <v>60</v>
@@ -2210,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="11">
         <v>60</v>
@@ -2224,7 +2227,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D46" s="11">
         <v>60</v>
@@ -2238,13 +2241,13 @@
         <v>4</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" ht="17.25">
       <c r="A48" s="11" t="s">
         <v>17</v>
       </c>
@@ -2252,9 +2255,23 @@
         <v>4</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>60</v>
       </c>
     </row>

--- a/assets/prizes.xlsx
+++ b/assets/prizes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\T959-Folder\Documents\GitHub\MumuPokemon\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC20CFE0-56F8-4472-A412-A3AC2BEED74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D6962C-EB4D-42EF-AA8A-3C3D0E9254AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9941A26F-0459-4E12-92B7-B15ACEB10B4C}"/>
+    <workbookView xWindow="2100" yWindow="510" windowWidth="25245" windowHeight="15045" xr2:uid="{9941A26F-0459-4E12-92B7-B15ACEB10B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
   <si>
     <t>group_name</t>
   </si>
@@ -1075,6 +1075,10 @@
   </si>
   <si>
     <t>✨戴魯比</t>
+  </si>
+  <si>
+    <t>自選色違 1 隻(一般)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1577,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4683CC-0685-4E42-A468-25AD09778568}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2269,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D49" s="11">
         <v>60</v>
